--- a/Excel/Demo-Web.xlsx
+++ b/Excel/Demo-Web.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Aghi\Katalon Studio\Day 1 Web-based\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8003A26-D191-4F0F-A867-5C3176812949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB483A0-18DE-4917-B8F3-4371788EC29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{BD914957-3006-4908-81AF-35B9FE8D9773}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{BD914957-3006-4908-81AF-35B9FE8D9773}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>username</t>
   </si>
@@ -93,12 +94,72 @@
   </si>
   <si>
     <t>admin3</t>
+  </si>
+  <si>
+    <t>empID</t>
+  </si>
+  <si>
+    <t>driverNumber</t>
+  </si>
+  <si>
+    <t>SSN</t>
+  </si>
+  <si>
+    <t>otherID</t>
+  </si>
+  <si>
+    <t>expired</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>marital</t>
+  </si>
+  <si>
+    <t>birth</t>
+  </si>
+  <si>
+    <t>nick</t>
+  </si>
+  <si>
+    <t>military</t>
+  </si>
+  <si>
+    <t>smoker</t>
+  </si>
+  <si>
+    <t>RRTE62S4D5</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Belgian</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Agatraining</t>
+  </si>
+  <si>
+    <t>Police</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,8 +189,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,7 +541,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D2"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D79240-1532-4094-BFE0-91E2B47B4F1D}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -605,4 +668,107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AACB252-E235-43FE-BE1D-A9F44599236A}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8989</v>
+      </c>
+      <c r="B2">
+        <v>5644892554</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44797</v>
+      </c>
+      <c r="F2">
+        <v>568</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1">
+        <v>27170</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>